--- a/prizmer/static/excel/water_impulse_template_for_load.xlsx
+++ b/prizmer/static/excel/water_impulse_template_for_load.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="k6_water" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="k6_water" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">k6_water!$B$2:$I$13</definedName>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="61">
   <si>
     <t xml:space="preserve">Паспорт для ЖК "Московский"</t>
   </si>
@@ -148,37 +148,64 @@
     <t xml:space="preserve">миномес ХВС, №036575</t>
   </si>
   <si>
-    <t xml:space="preserve">Квартира 003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПУ ГВС № 12121212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЗТА 20M 12121212</t>
+    <t xml:space="preserve">Корпус 2 Вода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Квартира 181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПУ ХВС № 192617753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-4001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">МЗТА</t>
   </si>
   <si>
-    <t xml:space="preserve">185.144.137.88</t>
+    <t xml:space="preserve">192.168.30.20</t>
   </si>
   <si>
     <t xml:space="preserve">*Нумерация квартир должна содержать нули, чтобы все числа имели одинаковый формат, иначе будут проблемы с сортировкой, лишние пробелы в наименовании так же могут сбить сортировку</t>
   </si>
   <si>
+    <t xml:space="preserve">ПУ ГВС № 192617751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
     <t xml:space="preserve">**К каналам Пульсара могут подключаться любые счётчики с имплуьсным инетрфейсом</t>
   </si>
   <si>
+    <t xml:space="preserve">Квартира 182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПУ ХВС № 192620610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-4002</t>
+  </si>
+  <si>
     <t xml:space="preserve">***Номер Пульсара во всех полях должен быть записан в одном и том же формате</t>
   </si>
   <si>
-    <t xml:space="preserve">****Если поле "Объект" (столбец B) пустое, то будет использовано предыдущее имя объекта, т.е. для строк 11-13 будет объектом закреплена Квартира 002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*****В поле "Тип Пульсара" не допускаются пробелы, тире и прочие символы, имена должны быть строго как а таблице</t>
-  </si>
-  <si>
-    <t xml:space="preserve">****** Слово "Вода" обязательно должно быть в наименовании дома</t>
+    <t xml:space="preserve">ПУ ГВС № 192618940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4*Если поле "Объект" (столбец B) пустое, то будет использовано предыдущее имя объекта, т.е. для строк 11-13 будет объектом закреплена Квартира 002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5*В поле "Тип Пульсара" не допускаются пробелы, тире и прочие символы, имена должны быть строго как а таблице</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6* Слово "Вода" обязательно должно быть в наименовании дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7* Для приборов МЗТА в колонке D должно быть уникальный номер прибора, можете придумать свой способ для его создания. В данном примере скомбинирован номер прибора и ip-порт.</t>
   </si>
 </sst>
 </file>
@@ -189,10 +216,10 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -224,6 +251,13 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -239,7 +273,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -250,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -338,6 +372,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -368,7 +409,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -393,10 +434,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,19 +478,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -466,38 +503,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF080000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -515,6 +521,48 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <family val="2"/>
+        <color rgb="FF800080"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <family val="2"/>
+        <color rgb="FF800080"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="204"/>
+        <family val="2"/>
+        <color rgb="FF800080"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -586,202 +634,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Тема Office">
-  <a:themeElements>
-    <a:clrScheme name="Стандартная">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="ffffff"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1f497d"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="eeece1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4f81bd"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="c0504d"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9bbb59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064a2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4bacc6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="f79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000ff"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Стандартная">
-      <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme>
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.29"/>
   </cols>
   <sheetData>
@@ -813,13 +686,13 @@
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -827,28 +700,28 @@
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="12" t="n">
+      <c r="I3" s="11" t="n">
         <v>6003</v>
       </c>
     </row>
@@ -856,26 +729,26 @@
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="12" t="n">
+      <c r="I4" s="11" t="n">
         <v>6003</v>
       </c>
     </row>
@@ -883,28 +756,28 @@
       <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="12" t="n">
+      <c r="I5" s="11" t="n">
         <v>6003</v>
       </c>
     </row>
@@ -912,28 +785,28 @@
       <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="12" t="n">
+      <c r="I6" s="11" t="n">
         <v>6003</v>
       </c>
     </row>
@@ -941,28 +814,28 @@
       <c r="A7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="12" t="n">
+      <c r="I7" s="11" t="n">
         <v>6003</v>
       </c>
     </row>
@@ -970,28 +843,28 @@
       <c r="A8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="12" t="n">
+      <c r="I8" s="11" t="n">
         <v>6003</v>
       </c>
     </row>
@@ -999,28 +872,28 @@
       <c r="A9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="12" t="n">
+      <c r="I9" s="11" t="n">
         <v>6003</v>
       </c>
     </row>
@@ -1028,28 +901,28 @@
       <c r="A10" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="I10" s="11" t="n">
         <v>6003</v>
       </c>
     </row>
@@ -1057,26 +930,26 @@
       <c r="A11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="12" t="n">
+      <c r="I11" s="11" t="n">
         <v>6003</v>
       </c>
     </row>
@@ -1084,26 +957,26 @@
       <c r="A12" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="12" t="n">
+      <c r="I12" s="11" t="n">
         <v>6003</v>
       </c>
     </row>
@@ -1111,143 +984,238 @@
       <c r="A13" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="12" t="n">
+      <c r="I13" s="11" t="n">
         <v>6003</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>41</v>
       </c>
+      <c r="B14" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="C14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="17" t="n">
+        <v>29</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="17" t="n">
+        <v>4001</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="20" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>12121212</v>
-      </c>
-      <c r="G14" s="19" t="s">
+      <c r="C15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="12" t="n">
-        <v>6004</v>
-      </c>
-      <c r="M14" s="21" t="s">
+      <c r="E15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="17" t="n">
+        <v>29</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M15" s="21" t="s">
+      <c r="H15" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
+      <c r="I15" s="17" t="n">
+        <v>4001</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M16" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
+      <c r="A16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="17" t="n">
+        <v>4002</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
     </row>
     <row r="17" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M17" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
+      <c r="A17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="17" t="n">
+        <v>4002</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
     </row>
     <row r="18" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M18" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
+      <c r="M18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M19" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
+      <c r="M19" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+    </row>
+    <row r="20" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M20" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:I13"/>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="M14:V14"/>
     <mergeCell ref="M15:V15"/>
@@ -1255,16 +1223,32 @@
     <mergeCell ref="M17:V17"/>
     <mergeCell ref="M18:V18"/>
     <mergeCell ref="M19:V19"/>
+    <mergeCell ref="M20:V20"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4"/>
+  <conditionalFormatting sqref="C18:C1048576 C1:C13">
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C64911">
-    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5"/>
+  <conditionalFormatting sqref="C18:C64911 C2:C13">
+    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C17">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>AND(COUNTIF($C$348:$C$404,C14)&gt;1,NOT(ISBLANK(C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C17">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>AND(COUNTIF($C$348:$C$692,C14)&gt;1,NOT(ISBLANK(C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C17">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>AND(COUNTIF($C$3:$C$692,C14)&gt;1,NOT(ISBLANK(C14)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.945138888888889" bottom="0.551388888888889" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.945138888888889" bottom="0.551388888888889" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
